--- a/detected_numbers.xlsx
+++ b/detected_numbers.xlsx
@@ -1,33 +1,487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projecteng\PythonProject\Integrated_traffic_system\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB7EE0-3D71-4853-8573-16A260246D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+  <si>
+    <t>KN3833</t>
+  </si>
+  <si>
+    <t>WXD886</t>
+  </si>
+  <si>
+    <t>AB29105</t>
+  </si>
+  <si>
+    <t>H6A894</t>
+  </si>
+  <si>
+    <t>MI38148</t>
+  </si>
+  <si>
+    <t>LLA181</t>
+  </si>
+  <si>
+    <t>A338850</t>
+  </si>
+  <si>
+    <t>A5D195</t>
+  </si>
+  <si>
+    <t>AID188</t>
+  </si>
+  <si>
+    <t>MN66791</t>
+  </si>
+  <si>
+    <t>AXR194</t>
+  </si>
+  <si>
+    <t>AN2893B</t>
+  </si>
+  <si>
+    <t>VA22344</t>
+  </si>
+  <si>
+    <t>ALA1321</t>
+  </si>
+  <si>
+    <t>AB68841</t>
+  </si>
+  <si>
+    <t>KAA8891</t>
+  </si>
+  <si>
+    <t>LA13001</t>
+  </si>
+  <si>
+    <t>HL33741</t>
+  </si>
+  <si>
+    <t>LB6040</t>
+  </si>
+  <si>
+    <t>VN4444</t>
+  </si>
+  <si>
+    <t>VG6444</t>
+  </si>
+  <si>
+    <t>LW14020</t>
+  </si>
+  <si>
+    <t>KW6413</t>
+  </si>
+  <si>
+    <t>824490</t>
+  </si>
+  <si>
+    <t>KZ85181</t>
+  </si>
+  <si>
+    <t>KW7412</t>
+  </si>
+  <si>
+    <t>VV2344</t>
+  </si>
+  <si>
+    <t>KN6911</t>
+  </si>
+  <si>
+    <t>AR6833</t>
+  </si>
+  <si>
+    <t>AK2518A</t>
+  </si>
+  <si>
+    <t>W2480</t>
+  </si>
+  <si>
+    <t>L24419</t>
+  </si>
+  <si>
+    <t>LS111</t>
+  </si>
+  <si>
+    <t>ALD838</t>
+  </si>
+  <si>
+    <t>L5D12</t>
+  </si>
+  <si>
+    <t>AH28111</t>
+  </si>
+  <si>
+    <t>LZ25161</t>
+  </si>
+  <si>
+    <t>AZ3182T</t>
+  </si>
+  <si>
+    <t>LA6506</t>
+  </si>
+  <si>
+    <t>AJ6919</t>
+  </si>
+  <si>
+    <t>L5A598</t>
+  </si>
+  <si>
+    <t>VJD092</t>
+  </si>
+  <si>
+    <t>LAD993</t>
+  </si>
+  <si>
+    <t>A5D193</t>
+  </si>
+  <si>
+    <t>HV3394</t>
+  </si>
+  <si>
+    <t>ABA5037</t>
+  </si>
+  <si>
+    <t>ABA1347</t>
+  </si>
+  <si>
+    <t>1LD512</t>
+  </si>
+  <si>
+    <t>AVD128</t>
+  </si>
+  <si>
+    <t>KJ6813</t>
+  </si>
+  <si>
+    <t>LV6509</t>
+  </si>
+  <si>
+    <t>LHD9161</t>
+  </si>
+  <si>
+    <t>421916</t>
+  </si>
+  <si>
+    <t>LA1011</t>
+  </si>
+  <si>
+    <t>LAD103</t>
+  </si>
+  <si>
+    <t>L97958</t>
+  </si>
+  <si>
+    <t>ABT703</t>
+  </si>
+  <si>
+    <t>AXT933</t>
+  </si>
+  <si>
+    <t>A11831</t>
+  </si>
+  <si>
+    <t>FX38436</t>
+  </si>
+  <si>
+    <t>LL21865</t>
+  </si>
+  <si>
+    <t>BID1241</t>
+  </si>
+  <si>
+    <t>LAA864B</t>
+  </si>
+  <si>
+    <t>LA1834B</t>
+  </si>
+  <si>
+    <t>AER864B</t>
+  </si>
+  <si>
+    <t>HAT804T</t>
+  </si>
+  <si>
+    <t>PJ6938</t>
+  </si>
+  <si>
+    <t>WH6878A</t>
+  </si>
+  <si>
+    <t>AW2206</t>
+  </si>
+  <si>
+    <t>N5D603</t>
+  </si>
+  <si>
+    <t>APD103</t>
+  </si>
+  <si>
+    <t>AP2103</t>
+  </si>
+  <si>
+    <t>A51003</t>
+  </si>
+  <si>
+    <t>AXD103</t>
+  </si>
+  <si>
+    <t>LVD958</t>
+  </si>
+  <si>
+    <t>AXD930</t>
+  </si>
+  <si>
+    <t>A2D103</t>
+  </si>
+  <si>
+    <t>KJD938</t>
+  </si>
+  <si>
+    <t>AX1918</t>
+  </si>
+  <si>
+    <t>AXT938B</t>
+  </si>
+  <si>
+    <t>AV1436B</t>
+  </si>
+  <si>
+    <t>LV5916</t>
+  </si>
+  <si>
+    <t>I5D416</t>
+  </si>
+  <si>
+    <t>BBT986</t>
+  </si>
+  <si>
+    <t>AAA8046</t>
+  </si>
+  <si>
+    <t>174433</t>
+  </si>
+  <si>
+    <t>A5D113</t>
+  </si>
+  <si>
+    <t>LH3382</t>
+  </si>
+  <si>
+    <t>ALA039</t>
+  </si>
+  <si>
+    <t>A3A4087</t>
+  </si>
+  <si>
+    <t>12VO4201</t>
+  </si>
+  <si>
+    <t>B1A1247</t>
+  </si>
+  <si>
+    <t>HPX855</t>
+  </si>
+  <si>
+    <t>1P7793</t>
+  </si>
+  <si>
+    <t>A36984B</t>
+  </si>
+  <si>
+    <t>1PA955T</t>
+  </si>
+  <si>
+    <t>LA5950</t>
+  </si>
+  <si>
+    <t>11X157J</t>
+  </si>
+  <si>
+    <t>H3A8947</t>
+  </si>
+  <si>
+    <t>AE2882D</t>
+  </si>
+  <si>
+    <t>WX3113B</t>
+  </si>
+  <si>
+    <t>KJ3320</t>
+  </si>
+  <si>
+    <t>KXXR51</t>
+  </si>
+  <si>
+    <t>TXXR51</t>
+  </si>
+  <si>
+    <t>BH6591</t>
+  </si>
+  <si>
+    <t>1XX75Y</t>
+  </si>
+  <si>
+    <t>VTA1940</t>
+  </si>
+  <si>
+    <t>1AAR551</t>
+  </si>
+  <si>
+    <t>AXD034</t>
+  </si>
+  <si>
+    <t>AX0010</t>
+  </si>
+  <si>
+    <t>KAXR596</t>
+  </si>
+  <si>
+    <t>ARD108</t>
+  </si>
+  <si>
+    <t>VXD913</t>
+  </si>
+  <si>
+    <t>AB0110</t>
+  </si>
+  <si>
+    <t>AAAR332</t>
+  </si>
+  <si>
+    <t>LXXJ57</t>
+  </si>
+  <si>
+    <t>1A2330B</t>
+  </si>
+  <si>
+    <t>BMA4990</t>
+  </si>
+  <si>
+    <t>KZD189</t>
+  </si>
+  <si>
+    <t>A5D993</t>
+  </si>
+  <si>
+    <t>ARD013</t>
+  </si>
+  <si>
+    <t>WXA894</t>
+  </si>
+  <si>
+    <t>VX0023</t>
+  </si>
+  <si>
+    <t>PKBR593</t>
+  </si>
+  <si>
+    <t>AV39166</t>
+  </si>
+  <si>
+    <t>LJ3314</t>
+  </si>
+  <si>
+    <t>AA38101</t>
+  </si>
+  <si>
+    <t>KX6459</t>
+  </si>
+  <si>
+    <t>1J3315B</t>
+  </si>
+  <si>
+    <t>AP3815</t>
+  </si>
+  <si>
+    <t>LU3318</t>
+  </si>
+  <si>
+    <t>AGX3381</t>
+  </si>
+  <si>
+    <t>L13316</t>
+  </si>
+  <si>
+    <t>LI3316</t>
+  </si>
+  <si>
+    <t>L1D11</t>
+  </si>
+  <si>
+    <t>LLD812</t>
+  </si>
+  <si>
+    <t>CL189</t>
+  </si>
+  <si>
+    <t>DL3891</t>
+  </si>
+  <si>
+    <t>L1D133</t>
+  </si>
+  <si>
+    <t>HJA810</t>
+  </si>
+  <si>
+    <t>AB39305</t>
+  </si>
+  <si>
+    <t>L5D890</t>
+  </si>
+  <si>
+    <t>AA2893A</t>
+  </si>
+  <si>
+    <t>FAD896</t>
+  </si>
+  <si>
+    <t>L5D192</t>
+  </si>
+  <si>
+    <t>1I38140</t>
+  </si>
+  <si>
+    <t>11N60530</t>
+  </si>
+  <si>
+    <t>17A25060</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +500,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,45 +780,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>11N60530</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17A25060</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>21D44840</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17A25100</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
